--- a/data-raw/nyc.xlsx
+++ b/data-raw/nyc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smarshak33/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smarshak33/dataProjects/dataStory/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50F6E6C6-61D7-9A40-B09D-7F4D1E9D4521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D784933-71ED-CB4D-867E-C4585A1D6D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIDR" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="129">
-  <si>
-    <t>U.S. Census Bureau</t>
-  </si>
-  <si>
-    <t>Source: Business Formation Statistics</t>
-  </si>
-  <si>
-    <t>Total for All NAICS: New York</t>
-  </si>
-  <si>
-    <t>Seasonally Adjusted Business Applications [Units]</t>
-  </si>
-  <si>
-    <t>Period: 2016 to 2025</t>
-  </si>
-  <si>
-    <t>Data Extracted on: April 12, 2025 (6:53 pm)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
   <si>
     <t>Period</t>
   </si>
@@ -416,18 +398,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,###,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -450,18 +425,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1F497D"/>
-        <bgColor rgb="FF1F497D"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -485,19 +454,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -515,50 +483,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1409700" cy="552450"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Census image" descr="Census image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -848,1020 +772,988 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="12" customWidth="1"/>
+    <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
+      <c r="B2" s="3">
+        <v>17453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
+      <c r="B3" s="3">
+        <v>16828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
+      <c r="B4" s="3">
+        <v>16547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>17066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>18114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>14718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>17453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B8" s="3">
+        <v>18070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>16828</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B9" s="3">
+        <v>16651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>16547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="B10" s="3">
+        <v>17711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>17066</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B11" s="3">
+        <v>16180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
-        <v>18114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="B12" s="3">
+        <v>17037</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>14718</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="B13" s="3">
+        <v>17721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <v>18070</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="B14" s="3">
+        <v>17166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>16651</v>
+      <c r="B15" s="3">
+        <v>17295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>17707</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>17711</v>
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>17732</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>16180</v>
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17945</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>17037</v>
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18588</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4">
-        <v>17721</v>
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>18251</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>17166</v>
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
+        <v>18336</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4">
-        <v>17295</v>
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>17778</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4">
-        <v>17707</v>
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3">
+        <v>18088</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4">
-        <v>17732</v>
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>18691</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4">
-        <v>17945</v>
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
+        <v>17901</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4">
-        <v>18588</v>
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3">
+        <v>19007</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4">
-        <v>18251</v>
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3">
+        <v>18825</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4">
-        <v>18336</v>
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3">
+        <v>18686</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4">
-        <v>17778</v>
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3">
+        <v>18650</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4">
-        <v>18088</v>
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
+        <v>19142</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4">
-        <v>18691</v>
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3">
+        <v>19167</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4">
-        <v>17901</v>
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <v>19374</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4">
-        <v>19007</v>
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3">
+        <v>18805</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4">
-        <v>18825</v>
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3">
+        <v>18965</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4">
-        <v>18686</v>
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3">
+        <v>19103</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4">
-        <v>18650</v>
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3">
+        <v>18776</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4">
-        <v>19142</v>
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3">
+        <v>19181</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4">
-        <v>19167</v>
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3">
+        <v>17032</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4">
-        <v>19374</v>
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3">
+        <v>19465</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4">
-        <v>18805</v>
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3">
+        <v>19705</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4">
-        <v>18965</v>
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3">
+        <v>19810</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4">
-        <v>19103</v>
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3">
+        <v>19111</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4">
-        <v>18776</v>
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3">
+        <v>19526</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4">
-        <v>19181</v>
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3">
+        <v>18759</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4">
-        <v>17032</v>
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="3">
+        <v>18862</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4">
-        <v>19465</v>
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3">
+        <v>19302</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4">
-        <v>19705</v>
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="3">
+        <v>19015</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4">
-        <v>19810</v>
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="3">
+        <v>19224</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4">
-        <v>19111</v>
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="3">
+        <v>20087</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4">
-        <v>19526</v>
+      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3">
+        <v>17565</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4">
-        <v>18759</v>
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="3">
+        <v>19522</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="4">
-        <v>18862</v>
+      <c r="A52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="3">
+        <v>15580</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="4">
-        <v>19302</v>
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="3">
+        <v>12122</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="4">
-        <v>19015</v>
+      <c r="A54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="3">
+        <v>15426</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4">
-        <v>19224</v>
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="3">
+        <v>20748</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="4">
-        <v>20087</v>
+      <c r="A56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="3">
+        <v>29776</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4">
-        <v>17565</v>
+      <c r="A57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="3">
+        <v>28888</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="4">
-        <v>19522</v>
+      <c r="A58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="3">
+        <v>26450</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="4">
-        <v>15580</v>
+      <c r="A59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="3">
+        <v>24590</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="4">
-        <v>12122</v>
+      <c r="A60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="3">
+        <v>23453</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="4">
-        <v>15426</v>
+      <c r="A61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="3">
+        <v>20281</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="4">
-        <v>20748</v>
+      <c r="A62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="3">
+        <v>27965</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="4">
-        <v>29776</v>
+      <c r="A63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="3">
+        <v>24374</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="4">
-        <v>28888</v>
+      <c r="A64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="3">
+        <v>25710</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4">
-        <v>26450</v>
+      <c r="A65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="3">
+        <v>28797</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="4">
-        <v>24590</v>
+      <c r="A66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="3">
+        <v>27117</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="4">
-        <v>23453</v>
+      <c r="A67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="3">
+        <v>24706</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="4">
-        <v>20281</v>
+      <c r="A68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="3">
+        <v>25381</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="4">
-        <v>27965</v>
+      <c r="A69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="3">
+        <v>25196</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="4">
-        <v>24374</v>
+      <c r="A70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="3">
+        <v>24557</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="4">
-        <v>25710</v>
+      <c r="A71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="3">
+        <v>25776</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="4">
-        <v>28797</v>
+      <c r="A72" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="3">
+        <v>25298</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="4">
-        <v>27117</v>
+      <c r="A73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="3">
+        <v>26126</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="4">
-        <v>24706</v>
+      <c r="A74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="3">
+        <v>28337</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="4">
-        <v>25381</v>
+      <c r="A75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="3">
+        <v>25371</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="4">
-        <v>25196</v>
+      <c r="A76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="3">
+        <v>25170</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="4">
-        <v>24557</v>
+      <c r="A77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="3">
+        <v>24506</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="4">
-        <v>25776</v>
+      <c r="A78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="3">
+        <v>24782</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="4">
-        <v>25298</v>
+      <c r="A79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="3">
+        <v>23803</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="4">
-        <v>26126</v>
+      <c r="A80" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="3">
+        <v>24638</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="4">
-        <v>28337</v>
+      <c r="A81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="3">
+        <v>24305</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="4">
-        <v>25371</v>
+      <c r="A82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="3">
+        <v>25084</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="4">
-        <v>25170</v>
+      <c r="A83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="3">
+        <v>24151</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="4">
-        <v>24506</v>
+      <c r="A84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="3">
+        <v>24039</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="4">
-        <v>24782</v>
+      <c r="A85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="3">
+        <v>23820</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="4">
-        <v>23803</v>
+      <c r="A86" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="3">
+        <v>24006</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" s="4">
-        <v>24638</v>
+      <c r="A87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="3">
+        <v>25438</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="4">
-        <v>24305</v>
+      <c r="A88" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="3">
+        <v>26376</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="4">
-        <v>25084</v>
+      <c r="A89" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="3">
+        <v>25295</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" s="4">
-        <v>24151</v>
+      <c r="A90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="3">
+        <v>25404</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="4">
-        <v>24039</v>
+      <c r="A91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="3">
+        <v>27108</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="4">
-        <v>23820</v>
+      <c r="A92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="3">
+        <v>27228</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="4">
-        <v>24006</v>
+      <c r="A93" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="3">
+        <v>26921</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" s="4">
-        <v>25438</v>
+      <c r="A94" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="3">
+        <v>26152</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" s="4">
-        <v>26376</v>
+      <c r="A95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="3">
+        <v>26753</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" s="4">
-        <v>25295</v>
+      <c r="A96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="3">
+        <v>26832</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" s="4">
-        <v>25404</v>
+      <c r="A97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="3">
+        <v>25762</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" s="4">
-        <v>27108</v>
+      <c r="A98" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="3">
+        <v>25980</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="4">
-        <v>27228</v>
+      <c r="A99" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="3">
+        <v>24594</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" s="4">
-        <v>26921</v>
+      <c r="A100" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="3">
+        <v>23721</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" s="4">
-        <v>26152</v>
+      <c r="A101" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="3">
+        <v>24540</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" s="4">
-        <v>26753</v>
+      <c r="A102" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="3">
+        <v>24232</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" s="4">
-        <v>26832</v>
+      <c r="A103" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="3">
+        <v>24437</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" s="4">
-        <v>25762</v>
+      <c r="A104" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="3">
+        <v>23978</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" s="4">
-        <v>25980</v>
+      <c r="A105" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="3">
+        <v>23991</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" s="4">
-        <v>24594</v>
+      <c r="A106" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="3">
+        <v>23913</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="4">
-        <v>23721</v>
+      <c r="A107" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="3">
+        <v>23397</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" s="4">
-        <v>24540</v>
+      <c r="A108" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="3">
+        <v>23726</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" s="4">
-        <v>24232</v>
+      <c r="A109" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="3">
+        <v>25669</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" s="4">
-        <v>24437</v>
+      <c r="A110" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="3">
+        <v>21497</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" s="4">
-        <v>23978</v>
+      <c r="A111" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="3">
+        <v>23729</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" s="4">
-        <v>23991</v>
+      <c r="A112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="3">
+        <v>24716</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" s="4">
-        <v>23913</v>
+      <c r="A113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" s="4">
-        <v>23397</v>
+      <c r="A114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="4">
-        <v>23726</v>
-      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" s="4">
-        <v>25669</v>
+      <c r="A116" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117" s="4">
-        <v>21497</v>
+      <c r="A117" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118" s="4">
-        <v>23729</v>
+      <c r="A118" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" s="4">
-        <v>24716</v>
+      <c r="A119" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>120</v>
+      <c r="A120" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+      <c r="A121" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>120</v>
+      <c r="B121" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data-raw/nyc.xlsx
+++ b/data-raw/nyc.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smarshak33/dataProjects/dataStory/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D784933-71ED-CB4D-867E-C4585A1D6D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0085B74D-C45A-C644-98F0-D34276A327E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="780" windowWidth="34200" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIDR" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Period</t>
   </si>
@@ -362,33 +375,6 @@
   </si>
   <si>
     <t>Apr-2025</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>May-2025</t>
-  </si>
-  <si>
-    <t>Jun-2025</t>
-  </si>
-  <si>
-    <t>Jul-2025</t>
-  </si>
-  <si>
-    <t>Aug-2025</t>
-  </si>
-  <si>
-    <t>Sep-2025</t>
-  </si>
-  <si>
-    <t>Oct-2025</t>
-  </si>
-  <si>
-    <t>Nov-2025</t>
-  </si>
-  <si>
-    <t>Dec-2025</t>
   </si>
 </sst>
 </file>
@@ -398,7 +384,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,###,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -420,6 +406,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -454,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,6 +460,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1679,77 +1672,46 @@
         <v>24716</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="B113" s="3">
+        <v>24699</v>
+      </c>
+      <c r="C113" s="5"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="2"/>
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="2"/>
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="2"/>
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="2"/>
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="2"/>
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="2"/>
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+      <c r="B121" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
